--- a/biology/Botanique/Pileanthus/Pileanthus.xlsx
+++ b/biology/Botanique/Pileanthus/Pileanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pileanthus est un genre de plantes aromatiques de la famille des Myrtaceae.
 Ce sont des arbustes mesurant 40 à 150 cm de hauteur à feuilles persistantes dégageant des huiles essentielles. Plantes xérophiles, elles ont des feuilles très petites, opposées, herbacées ou coriaces, pétiolées ou sessiles, aromatiques, simples, entières, linéaires, lancéolées ou oblongues. Les fleurs sont hermaphrodites regroupées en inflorescence terminale ou en corymbes. Les fruits ne sont pas charnus.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pileanthus aurantiacus
 Pileanthus bellus
